--- a/data/trans_dic/P15D$ingresado-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,82</t>
+          <t>0,0; 35,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 46,38</t>
+          <t>5,02; 45,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 33,89</t>
+          <t>2,37; 33,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,17 +755,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 46,61</t>
+          <t>6,38; 46,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 25,01</t>
+          <t>2,52; 24,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,33</t>
+          <t>0,0; 23,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 37,44</t>
+          <t>9,5; 37,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 22,39</t>
+          <t>4,54; 22,4</t>
         </is>
       </c>
     </row>
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,13</t>
+          <t>0,0; 41,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,45</t>
+          <t>0,0; 11,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,62</t>
+          <t>0,0; 34,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 26,26</t>
+          <t>2,29; 25,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +890,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,48</t>
+          <t>0,0; 27,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +900,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,43; 24,75</t>
+          <t>3,62; 25,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,29</t>
+          <t>0,0; 33,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 14,11</t>
+          <t>1,53; 14,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,84</t>
+          <t>0,0; 16,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 19,78</t>
+          <t>4,07; 19,25</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1005,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 36,38</t>
+          <t>6,13; 37,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 22,04</t>
+          <t>4,33; 23,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 34,14</t>
+          <t>6,32; 34,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,92; 39,59</t>
+          <t>11,72; 39,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,39</t>
+          <t>0,0; 82,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 50,99</t>
+          <t>6,65; 54,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 35,0</t>
+          <t>3,68; 35,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 36,65</t>
+          <t>5,91; 34,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 23,61</t>
+          <t>6,43; 24,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 27,51</t>
+          <t>5,95; 27,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 34,01</t>
+          <t>11,14; 34,19</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,85; 37,01</t>
+          <t>9,42; 39,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 14,01</t>
+          <t>3,42; 15,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 20,21</t>
+          <t>3,35; 20,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 36,73</t>
+          <t>12,61; 36,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1170,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,23</t>
+          <t>0,0; 12,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 33,33</t>
+          <t>5,76; 32,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 14,83</t>
+          <t>3,5; 15,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 23,2</t>
+          <t>4,82; 22,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 11,16</t>
+          <t>3,28; 12,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 20,5</t>
+          <t>6,14; 19,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 25,06</t>
+          <t>9,87; 25,1</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,13</t>
+          <t>0,0; 44,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 35,34</t>
+          <t>7,22; 35,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 17,74</t>
+          <t>2,01; 19,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 26,82</t>
+          <t>4,9; 28,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,16</t>
+          <t>0,0; 18,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 22,97</t>
+          <t>4,0; 22,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 18,97</t>
+          <t>2,47; 19,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 33,24</t>
+          <t>7,48; 32,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,76</t>
+          <t>0,0; 22,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 23,21</t>
+          <t>8,0; 24,14</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 15,65</t>
+          <t>2,65; 14,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 25,33</t>
+          <t>8,14; 25,84</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,25</t>
+          <t>0,0; 18,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,84</t>
+          <t>0,0; 21,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,99</t>
+          <t>0,0; 13,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,51; 30,6</t>
+          <t>3,5; 26,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 14,09</t>
+          <t>2,48; 14,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 24,8</t>
+          <t>5,0; 23,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,95; 22,1</t>
+          <t>5,87; 22,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 17,96</t>
+          <t>2,19; 17,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,72; 11,93</t>
+          <t>2,74; 12,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,68; 17,52</t>
+          <t>4,56; 18,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 18,78</t>
+          <t>4,87; 17,91</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,43; 21,79</t>
+          <t>8,29; 22,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,44; 12,41</t>
+          <t>5,39; 12,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,93; 16,25</t>
+          <t>7,22; 16,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,59; 23,03</t>
+          <t>11,59; 22,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,32</t>
+          <t>1,26; 10,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,03</t>
+          <t>4,93; 11,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 16,91</t>
+          <t>6,6; 16,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,18; 16,82</t>
+          <t>7,95; 16,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 15,28</t>
+          <t>6,74; 15,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,77</t>
+          <t>5,87; 10,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,55</t>
+          <t>7,95; 14,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,68; 17,79</t>
+          <t>10,77; 17,43</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, el ingreso en hospital o clínica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2846</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4544</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2380</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8839</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4531</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2158</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1081; 9704</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>564; 8026</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1804</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2184</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1280; 9333</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>586; 5691</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4800</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2228</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3952; 15498</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2136; 10537</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2291</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2160</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2576</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2026</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3071</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4867</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5477</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3869</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5838</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>552; 6187</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1709</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7462</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2097</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>839; 5892</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6241</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>909; 8697</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6324</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1925; 9106</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4651</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5520</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7804</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3049</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1543</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5818</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9686</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5519</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9347</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1733; 10695</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2455; 13071</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1963; 10866</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3907; 13255</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4085</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>930; 7625</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1826</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>441; 4272</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1966; 11516</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4546; 17349</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2373; 11157</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5049; 15503</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7814</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7616</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5651</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>14279</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6243</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3826</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7813</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9593</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11894</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18105</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3677; 15501</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3272; 14581</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1977; 12108</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8387; 24445</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1904</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6018</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2215; 12567</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1730; 7599</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3084; 14581</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4735; 17395</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5988; 19409</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11444; 29116</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7102</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2977</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6723</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3191</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7917</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2245</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>13825</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6167</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12606</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5668</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2765; 13601</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>836; 7902</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1876; 10791</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4076</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2328; 12898</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1000; 7874</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3974; 17467</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8011</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7722; 23295</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2169; 11733</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7439; 23624</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3158</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6400</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7042</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5600</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3158</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7381</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9007</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5765</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1805</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4921</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6274</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1525</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>981; 7563</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2217; 12987</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3020; 14057</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2736; 10268</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>969; 7568</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3185; 14459</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4109; 16657</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2841; 10456</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17115</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>23248</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>22365</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>32074</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>20308</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>21020</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>23841</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>22175</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>43556</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>43385</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>55915</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>10114; 27665</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15289; 34716</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>14421; 32040</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22921; 44825</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1180; 10186</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>12527; 30078</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>12554; 31425</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>16511; 33817</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14547; 33823</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>31596; 57467</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>30994; 57455</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>43658; 70661</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P15D$ingresado-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
